--- a/FantaSoccer/xG/SerieA/Cagliari_matches_2020.xlsx
+++ b/FantaSoccer/xG/SerieA/Cagliari_matches_2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="68">
   <si>
     <t>home</t>
   </si>
@@ -139,6 +139,15 @@
     <t>0.860583</t>
   </si>
   <si>
+    <t>1.16751</t>
+  </si>
+  <si>
+    <t>1.90744</t>
+  </si>
+  <si>
+    <t>1.1919</t>
+  </si>
+  <si>
     <t>0.95973</t>
   </si>
   <si>
@@ -182,6 +191,15 @@
   </si>
   <si>
     <t>5.2489</t>
+  </si>
+  <si>
+    <t>1.23401</t>
+  </si>
+  <si>
+    <t>1.25523</t>
+  </si>
+  <si>
+    <t>1.69958</t>
   </si>
   <si>
     <t>1</t>
@@ -597,13 +615,13 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -620,13 +638,13 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -643,13 +661,13 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -666,13 +684,13 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -689,13 +707,13 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -712,13 +730,13 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -735,13 +753,13 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -758,13 +776,13 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -781,13 +799,13 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -804,13 +822,13 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -827,13 +845,13 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -850,13 +868,13 @@
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -873,13 +891,13 @@
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -896,13 +914,13 @@
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -919,16 +937,16 @@
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -938,8 +956,20 @@
       <c r="C17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -949,8 +979,20 @@
       <c r="C18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -960,8 +1002,20 @@
       <c r="C19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -972,7 +1026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -983,7 +1037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -994,7 +1048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1005,7 +1059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1016,7 +1070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1027,7 +1081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1038,7 +1092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1049,7 +1103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1060,7 +1114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1071,7 +1125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1082,7 +1136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1093,7 +1147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
